--- a/test/functional/xlsx_files/escapes05.xlsx
+++ b/test/functional/xlsx_files/escapes05.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="12255" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
     <sheet name="A &amp; B" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
